--- a/Tennis/WTA Tour/Women's Singles Grand Slam Champions.xlsx
+++ b/Tennis/WTA Tour/Women's Singles Grand Slam Champions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="898" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF6196B3-3A6F-4F65-8C99-F92D690BACF4}"/>
+  <xr:revisionPtr revIDLastSave="932" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0E1DB41-6B35-4529-8431-98CFFBDCBFAA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -146,12 +146,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,10 +468,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +697,7 @@
       <c r="E10" s="3">
         <v>251</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <f>(D10-E10)/D10</f>
         <v>0.56271777003484325</v>
       </c>
@@ -720,7 +719,7 @@
       <c r="E11" s="3">
         <v>220</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <f>(D11-E11)/D11</f>
         <v>0.49541284403669728</v>
       </c>
@@ -834,8 +833,9 @@
         <f>(D16-E16)/D16</f>
         <v>0.3927272727272727</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -855,6 +855,40 @@
         <f>(D17-E17)/D17</f>
         <v>0.29874213836477986</v>
       </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{886A4C9F-69C7-4226-BCD2-6825075A697E}">
@@ -862,8 +896,8 @@
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F19 F2:F17">
-    <cfRule type="iconSet" priority="45">
+  <conditionalFormatting sqref="F32 F2:F17">
+    <cfRule type="iconSet" priority="48">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/WTA Tour/Women's Singles Grand Slam Champions.xlsx
+++ b/Tennis/WTA Tour/Women's Singles Grand Slam Champions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="932" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0E1DB41-6B35-4529-8431-98CFFBDCBFAA}"/>
+  <xr:revisionPtr revIDLastSave="954" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF4F6D74-AB98-490A-8D10-F6C106E54F38}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +522,7 @@
         <v>152</v>
       </c>
       <c r="F2" s="2">
-        <f>(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F17" si="0">(D2-E2)/D2</f>
         <v>0.82222222222222219</v>
       </c>
       <c r="G2" s="1"/>
@@ -532,20 +532,20 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2">
-        <f>(D3-E3)/D3</f>
-        <v>0.68055555555555558</v>
+        <f t="shared" si="0"/>
+        <v>0.68027210884353739</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -566,7 +566,7 @@
         <v>265</v>
       </c>
       <c r="F4" s="2">
-        <f>(D4-E4)/D4</f>
+        <f t="shared" si="0"/>
         <v>0.67484662576687116</v>
       </c>
       <c r="G4" s="1"/>
@@ -588,7 +588,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="2">
-        <f>(D5-E5)/D5</f>
+        <f t="shared" si="0"/>
         <v>0.67105263157894735</v>
       </c>
       <c r="G5" s="1"/>
@@ -598,20 +598,20 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E6">
         <v>101</v>
       </c>
       <c r="F6" s="2">
-        <f>(D6-E6)/D6</f>
-        <v>0.65646258503401356</v>
+        <f t="shared" si="0"/>
+        <v>0.66107382550335569</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -620,20 +620,20 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C7">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E7">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F7" s="2">
-        <f>(D7-E7)/D7</f>
-        <v>0.61705989110707804</v>
+        <f t="shared" si="0"/>
+        <v>0.6166365280289331</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -654,7 +654,7 @@
         <v>62</v>
       </c>
       <c r="F8" s="2">
-        <f>(D8-E8)/D8</f>
+        <f t="shared" si="0"/>
         <v>0.59740259740259738</v>
       </c>
       <c r="G8" s="1"/>
@@ -664,20 +664,20 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="E9">
         <v>228</v>
       </c>
       <c r="F9" s="2">
-        <f>(D9-E9)/D9</f>
-        <v>0.57462686567164178</v>
+        <f t="shared" si="0"/>
+        <v>0.57855822550831792</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -686,20 +686,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C10" s="3">
         <v>28</v>
       </c>
       <c r="D10" s="3">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E10" s="3">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F10" s="2">
-        <f>(D10-E10)/D10</f>
-        <v>0.56271777003484325</v>
+        <f t="shared" si="0"/>
+        <v>0.56173913043478263</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -720,7 +720,7 @@
         <v>220</v>
       </c>
       <c r="F11" s="2">
-        <f>(D11-E11)/D11</f>
+        <f t="shared" si="0"/>
         <v>0.49541284403669728</v>
       </c>
       <c r="G11" s="1"/>
@@ -742,7 +742,7 @@
         <v>350</v>
       </c>
       <c r="F12" s="2">
-        <f>(D12-E12)/D12</f>
+        <f t="shared" si="0"/>
         <v>0.46969696969696972</v>
       </c>
       <c r="G12" s="1"/>
@@ -764,7 +764,7 @@
         <v>170</v>
       </c>
       <c r="F13" s="2">
-        <f>(D13-E13)/D13</f>
+        <f t="shared" si="0"/>
         <v>0.46540880503144655</v>
       </c>
       <c r="G13" s="1"/>
@@ -774,20 +774,20 @@
         <v>4</v>
       </c>
       <c r="B14">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C14">
         <v>7</v>
       </c>
       <c r="D14">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E14">
         <v>139</v>
       </c>
       <c r="F14" s="2">
-        <f>(D14-E14)/D14</f>
-        <v>0.44400000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.45059288537549408</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -796,20 +796,20 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
       <c r="D15">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E15">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F15" s="2">
-        <f>(D15-E15)/D15</f>
-        <v>0.4170403587443946</v>
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -818,7 +818,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -827,11 +827,11 @@
         <v>275</v>
       </c>
       <c r="E16">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F16" s="2">
-        <f>(D16-E16)/D16</f>
-        <v>0.3927272727272727</v>
+        <f t="shared" si="0"/>
+        <v>0.3890909090909091</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -852,7 +852,7 @@
         <v>223</v>
       </c>
       <c r="F17" s="2">
-        <f>(D17-E17)/D17</f>
+        <f t="shared" si="0"/>
         <v>0.29874213836477986</v>
       </c>
       <c r="G17" s="1"/>

--- a/Tennis/WTA Tour/Women's Singles Grand Slam Champions.xlsx
+++ b/Tennis/WTA Tour/Women's Singles Grand Slam Champions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="954" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF4F6D74-AB98-490A-8D10-F6C106E54F38}"/>
+  <xr:revisionPtr revIDLastSave="1041" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{700043BF-5575-4D8B-A10C-E1DDF692CF22}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -468,10 +468,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +522,7 @@
         <v>152</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F17" si="0">(D2-E2)/D2</f>
+        <f>(D2-E2)/D2</f>
         <v>0.82222222222222219</v>
       </c>
       <c r="G2" s="1"/>
@@ -532,20 +532,20 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
-        <v>0.68027210884353739</v>
+        <f>(D3-E3)/D3</f>
+        <v>0.68421052631578949</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -566,52 +566,52 @@
         <v>265</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f>(D4-E4)/D4</f>
         <v>0.67484662576687116</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.67105263157894735</v>
+        <f>(D5-E5)/D5</f>
+        <v>0.66885245901639345</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="E6">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.66107382550335569</v>
+        <f>(D6-E6)/D6</f>
+        <v>0.64935064935064934</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -620,20 +620,20 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C7">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E7">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.6166365280289331</v>
+        <f>(D7-E7)/D7</f>
+        <v>0.61690647482014394</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -654,7 +654,7 @@
         <v>62</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <f>(D8-E8)/D8</f>
         <v>0.59740259740259738</v>
       </c>
       <c r="G8" s="1"/>
@@ -664,20 +664,20 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C9">
         <v>23</v>
       </c>
       <c r="D9">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="E9">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.57855822550831792</v>
+        <f>(D9-E9)/D9</f>
+        <v>0.57904411764705888</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -686,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C10" s="3">
         <v>28</v>
@@ -695,11 +695,11 @@
         <v>575</v>
       </c>
       <c r="E10" s="3">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.56173913043478263</v>
+        <f>(D10-E10)/D10</f>
+        <v>0.55826086956521737</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -708,64 +708,63 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
       </c>
       <c r="D11" s="3">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E11" s="3">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.49541284403669728</v>
+        <f>(D11-E11)/D11</f>
+        <v>0.49315068493150682</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>374</v>
+        <v>187</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>660</v>
+        <v>325</v>
       </c>
       <c r="E12">
-        <v>350</v>
+        <v>172</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.46969696969696972</v>
-      </c>
-      <c r="G12" s="1"/>
+        <f>(D12-E12)/D12</f>
+        <v>0.47076923076923077</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>185</v>
+        <v>375</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>318</v>
+        <v>660</v>
       </c>
       <c r="E13">
-        <v>170</v>
+        <v>351</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.46540880503144655</v>
+        <f>(D13-E13)/D13</f>
+        <v>0.4681818181818182</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -774,20 +773,20 @@
         <v>4</v>
       </c>
       <c r="B14">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C14">
         <v>7</v>
       </c>
       <c r="D14">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E14">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.45059288537549408</v>
+        <f>(D14-E14)/D14</f>
+        <v>0.45098039215686275</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -796,7 +795,7 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -805,11 +804,11 @@
         <v>225</v>
       </c>
       <c r="E15">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
+        <f>(D15-E15)/D15</f>
+        <v>0.40888888888888891</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -818,20 +817,20 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E16">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.3890909090909091</v>
+        <f>(D16-E16)/D16</f>
+        <v>0.38989169675090252</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -840,7 +839,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -849,11 +848,11 @@
         <v>318</v>
       </c>
       <c r="E17">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.29874213836477986</v>
+        <f>(D17-E17)/D17</f>
+        <v>0.29559748427672955</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -889,6 +888,45 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{886A4C9F-69C7-4226-BCD2-6825075A697E}">
@@ -896,8 +934,8 @@
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F32 F2:F17">
-    <cfRule type="iconSet" priority="48">
+  <conditionalFormatting sqref="F45 F2:F17">
+    <cfRule type="iconSet" priority="51">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/WTA Tour/Women's Singles Grand Slam Champions.xlsx
+++ b/Tennis/WTA Tour/Women's Singles Grand Slam Champions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1041" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{700043BF-5575-4D8B-A10C-E1DDF692CF22}"/>
+  <xr:revisionPtr revIDLastSave="1270" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B63180F-DF75-4DD1-A609-65035960CC46}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>WINS</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>WINNING PERCENTILE RANGE</t>
-  </si>
-  <si>
-    <t>Ashleigh Barty (AUSTRALIA)</t>
   </si>
   <si>
     <t>Naomi Osaka (JAPAN)</t>
@@ -468,10 +465,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,13 +483,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -507,7 +504,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>248</v>
@@ -522,36 +519,36 @@
         <v>152</v>
       </c>
       <c r="F2" s="2">
-        <f>(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F16" si="0">(D2-E2)/D2</f>
         <v>0.82222222222222219</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="E3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2">
-        <f>(D3-E3)/D3</f>
-        <v>0.68421052631578949</v>
+        <f t="shared" si="0"/>
+        <v>0.72159090909090906</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>328</v>
@@ -566,236 +563,237 @@
         <v>265</v>
       </c>
       <c r="F4" s="2">
-        <f>(D4-E4)/D4</f>
+        <f t="shared" si="0"/>
         <v>0.67484662576687116</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B5">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>305</v>
+        <v>81</v>
       </c>
       <c r="E5">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
-        <f>(D5-E5)/D5</f>
-        <v>0.66885245901639345</v>
+        <f t="shared" si="0"/>
+        <v>0.61728395061728392</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>29</v>
+        <v>249</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>77</v>
+        <v>559</v>
       </c>
       <c r="E6">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="F6" s="2">
-        <f>(D6-E6)/D6</f>
-        <v>0.64935064935064934</v>
+        <f t="shared" si="0"/>
+        <v>0.61359570661896246</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>556</v>
+        <v>155</v>
       </c>
       <c r="E7">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="F7" s="2">
-        <f>(D7-E7)/D7</f>
-        <v>0.61690647482014394</v>
+        <f t="shared" si="0"/>
+        <v>0.59354838709677415</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>74</v>
+        <v>266</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>154</v>
+        <v>551</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>232</v>
       </c>
       <c r="F8" s="2">
-        <f>(D8-E8)/D8</f>
-        <v>0.59740259740259738</v>
+        <f t="shared" si="0"/>
+        <v>0.57894736842105265</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>263</v>
-      </c>
-      <c r="C9">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>544</v>
-      </c>
-      <c r="E9">
-        <v>229</v>
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>304</v>
+      </c>
+      <c r="C9" s="3">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3">
+        <v>583</v>
+      </c>
+      <c r="E9" s="3">
+        <v>261</v>
       </c>
       <c r="F9" s="2">
-        <f>(D9-E9)/D9</f>
-        <v>0.57904411764705888</v>
+        <f t="shared" si="0"/>
+        <v>0.55231560891938247</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>296</v>
+        <v>243</v>
       </c>
       <c r="C10" s="3">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3">
-        <v>575</v>
+        <v>441</v>
       </c>
       <c r="E10" s="3">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="F10" s="2">
-        <f>(D10-E10)/D10</f>
-        <v>0.55826086956521737</v>
+        <f t="shared" si="0"/>
+        <v>0.48979591836734693</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>239</v>
-      </c>
-      <c r="C11" s="3">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3">
-        <v>438</v>
-      </c>
-      <c r="E11" s="3">
-        <v>222</v>
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>189</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>327</v>
+      </c>
+      <c r="E11">
+        <v>174</v>
       </c>
       <c r="F11" s="2">
-        <f>(D11-E11)/D11</f>
-        <v>0.49315068493150682</v>
+        <f t="shared" si="0"/>
+        <v>0.46788990825688076</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>187</v>
+        <v>381</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>325</v>
+        <v>662</v>
       </c>
       <c r="E12">
-        <v>172</v>
+        <v>357</v>
       </c>
       <c r="F12" s="2">
-        <f>(D12-E12)/D12</f>
-        <v>0.47076923076923077</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0.4607250755287009</v>
+      </c>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>375</v>
+        <v>155</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>660</v>
+        <v>261</v>
       </c>
       <c r="E13">
-        <v>351</v>
+        <v>142</v>
       </c>
       <c r="F13" s="2">
-        <f>(D13-E13)/D13</f>
-        <v>0.4681818181818182</v>
+        <f t="shared" si="0"/>
+        <v>0.45593869731800768</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="E14">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="F14" s="2">
-        <f>(D14-E14)/D14</f>
-        <v>0.45098039215686275</v>
+        <f t="shared" si="0"/>
+        <v>0.40138408304498269</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -804,11 +802,11 @@
         <v>225</v>
       </c>
       <c r="E15">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F15" s="2">
-        <f>(D15-E15)/D15</f>
-        <v>0.40888888888888891</v>
+        <f t="shared" si="0"/>
+        <v>0.4</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -817,88 +815,66 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>181</v>
+        <v>237</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="E16">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="F16" s="2">
-        <f>(D16-E16)/D16</f>
-        <v>0.38989169675090252</v>
+        <f t="shared" si="0"/>
+        <v>0.29938271604938271</v>
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>232</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <v>318</v>
-      </c>
-      <c r="E17">
-        <v>224</v>
-      </c>
-      <c r="F17" s="2">
-        <f>(D17-E17)/D17</f>
-        <v>0.29559748427672955</v>
-      </c>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.25">
@@ -928,14 +904,68 @@
     <row r="41" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G41" s="1"/>
     </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{886A4C9F-69C7-4226-BCD2-6825075A697E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F17">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F16">
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F45 F2:F17">
-    <cfRule type="iconSet" priority="51">
+  <conditionalFormatting sqref="F63 F2:F16">
+    <cfRule type="iconSet" priority="60">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/WTA Tour/Women's Singles Grand Slam Champions.xlsx
+++ b/Tennis/WTA Tour/Women's Singles Grand Slam Champions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1270" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B63180F-DF75-4DD1-A609-65035960CC46}"/>
+  <xr:revisionPtr revIDLastSave="1282" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{735F6BCD-21E2-4CDC-A076-1EE0868A9714}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,14 +579,14 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.61728395061728392</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -595,20 +595,20 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C6">
         <v>21</v>
       </c>
       <c r="D6">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E6">
         <v>216</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.61359570661896246</v>
+        <v>0.61428571428571432</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -623,14 +623,14 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E7">
         <v>63</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.59354838709677415</v>
+        <v>0.59615384615384615</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -670,11 +670,11 @@
         <v>583</v>
       </c>
       <c r="E9" s="3">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.55231560891938247</v>
+        <v>0.55060034305317329</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -689,14 +689,14 @@
         <v>10</v>
       </c>
       <c r="D10" s="3">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E10" s="3">
         <v>225</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.48979591836734693</v>
+        <v>0.49095022624434387</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -755,14 +755,14 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E13">
         <v>142</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.45593869731800768</v>
+        <v>0.4580152671755725</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -780,11 +780,11 @@
         <v>289</v>
       </c>
       <c r="E14">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.40138408304498269</v>
+        <v>0.39792387543252594</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -824,11 +824,11 @@
         <v>324</v>
       </c>
       <c r="E16">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>0.29938271604938271</v>
+        <v>0.29629629629629628</v>
       </c>
       <c r="G16" s="1"/>
     </row>

--- a/Tennis/WTA Tour/Women's Singles Grand Slam Champions.xlsx
+++ b/Tennis/WTA Tour/Women's Singles Grand Slam Champions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1282" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{735F6BCD-21E2-4CDC-A076-1EE0868A9714}"/>
+  <xr:revisionPtr revIDLastSave="1284" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C949034-E8A2-4729-93A5-F591DDAE77EA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,14 +601,14 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E6">
         <v>216</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.61428571428571432</v>
+        <v>0.61497326203208558</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -645,14 +645,14 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E8">
         <v>232</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.57894736842105265</v>
+        <v>0.58047016274864371</v>
       </c>
       <c r="G8" s="1"/>
     </row>

--- a/Tennis/WTA Tour/Women's Singles Grand Slam Champions.xlsx
+++ b/Tennis/WTA Tour/Women's Singles Grand Slam Champions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1284" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C949034-E8A2-4729-93A5-F591DDAE77EA}"/>
+  <xr:revisionPtr revIDLastSave="1296" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E1A5FCC-66F1-4F5B-B76C-ED33BB968EA6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,20 +573,20 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.6097560975609756</v>
+        <v>0.60240963855421692</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -604,11 +604,11 @@
         <v>561</v>
       </c>
       <c r="E6">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.61497326203208558</v>
+        <v>0.61319073083778963</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -617,20 +617,20 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.59615384615384615</v>
+        <v>0.59235668789808915</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -639,20 +639,20 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C8">
         <v>23</v>
       </c>
       <c r="D8">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E8">
         <v>232</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.58047016274864371</v>
+        <v>0.58122743682310474</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -692,11 +692,11 @@
         <v>442</v>
       </c>
       <c r="E10" s="3">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.49095022624434387</v>
+        <v>0.48868778280542985</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -758,11 +758,11 @@
         <v>262</v>
       </c>
       <c r="E13">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.4580152671755725</v>
+        <v>0.45419847328244273</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -771,7 +771,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C14">
         <v>5</v>

--- a/Tennis/WTA Tour/Women's Singles Grand Slam Champions.xlsx
+++ b/Tennis/WTA Tour/Women's Singles Grand Slam Champions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1296" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E1A5FCC-66F1-4F5B-B76C-ED33BB968EA6}"/>
+  <xr:revisionPtr revIDLastSave="1414" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85182669-BB43-4DED-8838-34996CC36679}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,20 +529,20 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E3">
         <v>49</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="0"/>
-        <v>0.72159090909090906</v>
+        <v>0.73936170212765961</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -570,89 +570,89 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>36</v>
+        <v>252</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>83</v>
+        <v>565</v>
       </c>
       <c r="E5">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.60240963855421692</v>
+        <v>0.61238938053097347</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>561</v>
+        <v>165</v>
       </c>
       <c r="E6">
-        <v>217</v>
+        <v>68</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.61319073083778963</v>
+        <v>0.58787878787878789</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>157</v>
+        <v>562</v>
       </c>
       <c r="E7">
-        <v>64</v>
+        <v>236</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.59235668789808915</v>
+        <v>0.58007117437722422</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>554</v>
+        <v>84</v>
       </c>
       <c r="E8">
-        <v>232</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.58122743682310474</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -661,20 +661,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C9" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="E9" s="3">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.55060034305317329</v>
+        <v>0.55178268251273344</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -683,20 +683,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C10" s="3">
         <v>10</v>
       </c>
       <c r="D10" s="3">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E10" s="3">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.48868778280542985</v>
+        <v>0.47972972972972971</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -705,7 +705,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -714,11 +714,11 @@
         <v>327</v>
       </c>
       <c r="E11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0.46788990825688076</v>
+        <v>0.46177370030581039</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -727,20 +727,20 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="E12">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.4607250755287009</v>
+        <v>0.46497764530551416</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -758,55 +758,55 @@
         <v>262</v>
       </c>
       <c r="E13">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.45419847328244273</v>
+        <v>0.45038167938931295</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
       <c r="D14">
-        <v>289</v>
+        <v>225</v>
       </c>
       <c r="E14">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.39792387543252594</v>
+        <v>0.4</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
       <c r="D15">
-        <v>225</v>
+        <v>295</v>
       </c>
       <c r="E15">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.39661016949152544</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -815,20 +815,20 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C16">
         <v>7</v>
       </c>
       <c r="D16">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E16">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>0.29629629629629628</v>
+        <v>0.29268292682926828</v>
       </c>
       <c r="G16" s="1"/>
     </row>

--- a/Tennis/WTA Tour/Women's Singles Grand Slam Champions.xlsx
+++ b/Tennis/WTA Tour/Women's Singles Grand Slam Champions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1414" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85182669-BB43-4DED-8838-34996CC36679}"/>
+  <xr:revisionPtr revIDLastSave="1650" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2905196-9E86-480F-8882-CC37EC81DC5C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>WINS</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Venus Williams (USA)</t>
+  </si>
+  <si>
+    <t>Elena Rybakina (KAZAKHSTAN)</t>
   </si>
 </sst>
 </file>
@@ -143,11 +146,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,10 +467,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,20 +509,20 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C2">
         <v>73</v>
       </c>
       <c r="D2">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F16" si="0">(D2-E2)/D2</f>
-        <v>0.82222222222222219</v>
+        <f t="shared" ref="F2:F17" si="0">(D2-E2)/D2</f>
+        <v>0.81818181818181823</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -529,20 +531,20 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="0"/>
-        <v>0.73936170212765961</v>
+        <v>0.73631840796019898</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -551,7 +553,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C4">
         <v>49</v>
@@ -560,11 +562,11 @@
         <v>815</v>
       </c>
       <c r="E4">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.67484662576687116</v>
+        <v>0.67116564417177915</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -573,152 +575,152 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C5">
         <v>21</v>
       </c>
       <c r="D5">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="E5">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.61238938053097347</v>
+        <v>0.6112084063047285</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>165</v>
+        <v>575</v>
       </c>
       <c r="E6">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.58787878787878789</v>
+        <v>0.58434782608695657</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>271</v>
+        <v>84</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>562</v>
+        <v>170</v>
       </c>
       <c r="E7">
-        <v>236</v>
+        <v>72</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.58007117437722422</v>
+        <v>0.57647058823529407</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>311</v>
+      </c>
+      <c r="C8">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>598</v>
+      </c>
+      <c r="E8">
+        <v>267</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.55351170568561869</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
-        <v>38</v>
-      </c>
-      <c r="C8">
+      <c r="B9">
+        <v>45</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>84</v>
-      </c>
-      <c r="E8">
-        <v>36</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>307</v>
-      </c>
-      <c r="C9" s="3">
-        <v>29</v>
-      </c>
-      <c r="D9" s="3">
-        <v>589</v>
-      </c>
-      <c r="E9" s="3">
-        <v>264</v>
+      <c r="D9">
+        <v>93</v>
+      </c>
+      <c r="E9">
+        <v>43</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.55178268251273344</v>
+        <v>0.5376344086021505</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>248</v>
-      </c>
-      <c r="C10" s="3">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3">
-        <v>444</v>
-      </c>
-      <c r="E10" s="3">
-        <v>231</v>
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>123</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>240</v>
+      </c>
+      <c r="E10">
+        <v>111</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.47972972972972971</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>327</v>
+        <v>448</v>
       </c>
       <c r="E11">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0.46177370030581039</v>
+        <v>0.4732142857142857</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -727,64 +729,64 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C12">
         <v>14</v>
       </c>
       <c r="D12">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E12">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.46497764530551416</v>
+        <v>0.46359583952451711</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>199</v>
+      </c>
+      <c r="C13">
         <v>3</v>
       </c>
-      <c r="B13">
-        <v>155</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
       <c r="D13">
-        <v>262</v>
+        <v>334</v>
       </c>
       <c r="E13">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.45038167938931295</v>
+        <v>0.44910179640718562</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="E14">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.43939393939393939</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -793,88 +795,107 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
       <c r="D15">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="E15">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>0.39661016949152544</v>
+        <v>0.39802631578947367</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>150</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>227</v>
+      </c>
+      <c r="E16">
+        <v>141</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.3788546255506608</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>241</v>
-      </c>
-      <c r="C16">
+      <c r="B17">
+        <v>246</v>
+      </c>
+      <c r="C17">
         <v>7</v>
       </c>
-      <c r="D16">
-        <v>328</v>
-      </c>
-      <c r="E16">
-        <v>232</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.29268292682926828</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>331</v>
+      </c>
+      <c r="E17">
+        <v>237</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.28398791540785501</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G29" s="1"/>
     </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.25">
@@ -922,49 +943,13 @@
     <row r="47" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G59" s="1"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{886A4C9F-69C7-4226-BCD2-6825075A697E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F16">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F18">
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F63 F2:F16">
+  <conditionalFormatting sqref="F51 F2:F17">
     <cfRule type="iconSet" priority="60">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
